--- a/results/RMR results/gamm_rmr_model_fit.xlsx
+++ b/results/RMR results/gamm_rmr_model_fit.xlsx
@@ -389,7 +389,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>64.9608612404354</v>
+        <v>64.960861240435</v>
       </c>
       <c r="B2" t="n">
         <v>-12199.0563017493</v>
@@ -401,10 +401,10 @@
         <v>24935.2522574217</v>
       </c>
       <c r="E2" t="n">
-        <v>64.1932987189455</v>
+        <v>64.1932987189454</v>
       </c>
       <c r="F2" t="n">
-        <v>3106.03913875956</v>
+        <v>3106.03913875957</v>
       </c>
       <c r="G2" t="n">
         <v>3171</v>
